--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>719566.8175805962</v>
+        <v>717679.2360641939</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>114.6223796993125</v>
+        <v>97.8152507490429</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>17.1565667452053</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>51.64502220720954</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>311.7236704958891</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2.660219339388957</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>46.99007124656698</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>101.7602638082833</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>128.216555440145</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>45.41161064795065</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>148.9331594064108</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>81.55872489016981</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274034</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>107.4294528083273</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>43.70480201531493</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>259.3061888821582</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>194.5773394299202</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>44.86876520563956</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>225.2064798074085</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.149688088297</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>168.6928445991046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>74.64585437512058</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>54.76109577523571</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>152.6240362727733</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346322</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2069.921547395234</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="C2" t="n">
-        <v>2069.921547395234</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.655848788484</v>
+        <v>1308.890698260674</v>
       </c>
       <c r="E2" t="n">
-        <v>1325.867596190239</v>
+        <v>1308.890698260674</v>
       </c>
       <c r="F2" t="n">
-        <v>914.8816914006318</v>
+        <v>897.9047934710666</v>
       </c>
       <c r="G2" t="n">
-        <v>496.9178832988187</v>
+        <v>479.9409853692534</v>
       </c>
       <c r="H2" t="n">
-        <v>169.7231633348215</v>
+        <v>152.7462654052563</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>2069.921547395234</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1273.280804219765</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="C5" t="n">
-        <v>1273.280804219765</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0151056130146</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>529.2268530147703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>522.2813522655669</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y5" t="n">
-        <v>1659.880644283887</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="U7" t="n">
-        <v>466.3758425937212</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>725.4418939646272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2539.332256287823</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2539.332256287823</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2539.332256287823</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.063478780785</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.8132956061732</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.8132956061732</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.8132956061732</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>470.722514162039</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.1357418247858</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>795.1995588968789</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>645.0829194845433</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>933.2366688293935</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>643.8194987924329</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247858</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.1357418247858</v>
+        <v>415.8299478944156</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,25 +5279,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>757.7241344124297</v>
+        <v>503.0396462065431</v>
       </c>
       <c r="C16" t="n">
-        <v>588.7879514845229</v>
+        <v>503.0396462065431</v>
       </c>
       <c r="D16" t="n">
-        <v>438.6713120721871</v>
+        <v>503.0396462065431</v>
       </c>
       <c r="E16" t="n">
-        <v>438.6713120721871</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>291.7813645742768</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,7 +5434,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688071</v>
@@ -5470,16 +5470,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104473</v>
+        <v>731.0291971045605</v>
       </c>
       <c r="X16" t="n">
-        <v>757.7241344124297</v>
+        <v>503.0396462065431</v>
       </c>
       <c r="Y16" t="n">
-        <v>757.7241344124297</v>
+        <v>503.0396462065431</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.6713633309776</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6713633309776</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473454</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473454</v>
+        <v>982.3063390367043</v>
       </c>
       <c r="W19" t="n">
-        <v>1102.453493372525</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X19" t="n">
-        <v>874.4639424745077</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y19" t="n">
-        <v>653.6713633309776</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1014.141587792752</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.461721072713</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.4344461847496</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>701.4982632568427</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>551.381623844507</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>551.381623844507</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>404.4916763465966</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>982.3063390367043</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.423997082767</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X22" t="n">
-        <v>870.4344461847496</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y22" t="n">
-        <v>870.4344461847496</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,64 +5975,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>337.0115451844521</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>168.0753622565452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>168.0753622565452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0753622565452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>168.0753622565452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>168.0753622565452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>168.0753622565452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,16 +6151,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752259996</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>557.8041243279822</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>337.0115451844521</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1128.599447747087</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>839.1822777101258</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>611.1927268121085</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>390.4001476685784</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6482,13 +6482,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,7 +6497,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.6915747572971</v>
+        <v>656.5190452905601</v>
       </c>
       <c r="C31" t="n">
-        <v>470.516257110761</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="D31" t="n">
-        <v>376.1604829797961</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756339</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864676</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6646,25 +6646,25 @@
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899271</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970148</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465077</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540562</v>
+        <v>1181.094663457178</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784972</v>
+        <v>947.4383587015884</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683251</v>
+        <v>947.4383587015884</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061659</v>
+        <v>782.4066448394291</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103138</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982982</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,13 +6859,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6886,7 +6886,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7309,46 +7309,46 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
@@ -7363,16 +7363,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010317</v>
@@ -7406,34 +7406,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>113.6026921294542</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>358.3520020925045</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>213.2603911806629</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>32.78140656352406</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>29.47535963978262</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>272.8719470256804</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>433.7515527292971</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>30.89882077552647</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>64.87523775639936</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,19 +23653,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>39.00450983824186</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.7887664480627</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>91.94565890667081</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121.624803257738</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,10 +24181,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>26.9311635164195</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>40.269557375975</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>83.44479872472343</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>16.58485164289146</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>44.31035042249765</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>369468.7964389272</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
         <v>351926.1537639379</v>
       </c>
       <c r="F2" t="n">
+        <v>351926.1537639383</v>
+      </c>
+      <c r="G2" t="n">
+        <v>351926.1537639381</v>
+      </c>
+      <c r="H2" t="n">
+        <v>351926.1537639379</v>
+      </c>
+      <c r="I2" t="n">
         <v>351926.153763938</v>
       </c>
-      <c r="G2" t="n">
-        <v>351926.1537639379</v>
-      </c>
-      <c r="H2" t="n">
-        <v>351926.1537639382</v>
-      </c>
-      <c r="I2" t="n">
-        <v>351926.1537639381</v>
-      </c>
       <c r="J2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.153763938</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107431</v>
+        <v>366139.9236107425</v>
       </c>
       <c r="L2" t="n">
+        <v>369468.7964389282</v>
+      </c>
+      <c r="M2" t="n">
         <v>369468.7964389281</v>
       </c>
-      <c r="M2" t="n">
-        <v>369468.7964389276</v>
-      </c>
       <c r="N2" t="n">
+        <v>369468.7964389278</v>
+      </c>
+      <c r="O2" t="n">
         <v>369468.7964389282</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369468.7964389283</v>
       </c>
       <c r="P2" t="n">
         <v>369468.7964389282</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007492</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020406</v>
+        <v>26081.35417020397</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-451275.2095549474</v>
+        <v>-451275.2095549476</v>
       </c>
       <c r="C6" t="n">
+        <v>138692.6696595969</v>
+      </c>
+      <c r="D6" t="n">
         <v>138692.669659597</v>
       </c>
-      <c r="D6" t="n">
-        <v>138692.6696595972</v>
-      </c>
       <c r="E6" t="n">
-        <v>-273137.9403176822</v>
+        <v>-273235.3994436545</v>
       </c>
       <c r="F6" t="n">
-        <v>252022.0961592139</v>
+        <v>251924.637033242</v>
       </c>
       <c r="G6" t="n">
-        <v>252022.0961592139</v>
+        <v>251924.6370332418</v>
       </c>
       <c r="H6" t="n">
-        <v>252022.0961592141</v>
+        <v>251924.6370332417</v>
       </c>
       <c r="I6" t="n">
-        <v>252022.096159214</v>
+        <v>251924.6370332417</v>
       </c>
       <c r="J6" t="n">
-        <v>75598.87696662094</v>
+        <v>75501.41784064884</v>
       </c>
       <c r="K6" t="n">
-        <v>199267.7556074705</v>
+        <v>199249.2618695357</v>
       </c>
       <c r="L6" t="n">
-        <v>231075.2649207079</v>
+        <v>231075.2649207081</v>
       </c>
       <c r="M6" t="n">
-        <v>106617.1564877371</v>
+        <v>106617.1564877376</v>
       </c>
       <c r="N6" t="n">
+        <v>241418.1717215744</v>
+      </c>
+      <c r="O6" t="n">
         <v>241418.1717215748</v>
       </c>
-      <c r="O6" t="n">
-        <v>241418.171721575</v>
-      </c>
       <c r="P6" t="n">
-        <v>197255.5664187291</v>
+        <v>197255.5664187292</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37.30893654554879</v>
+        <v>54.11606549581835</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>11.966183209709</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>313.627869563798</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>102.0604995249059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>26.46253061552535</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>239.2918029954108</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>114.6880565493745</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>258.0213832159086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>121.8981916111003</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35738,10 +35738,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>446.797265527467</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>607.6097070485288</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>420.3538061121876</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36914,10 +36914,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>282.0391115195484</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>236.5687745713073</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>583.2963240761467</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>744.1759297797634</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
